--- a/raw/MMS Data Model Table to File to Report Relationships.xlsx
+++ b/raw/MMS Data Model Table to File to Report Relationships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aemo.local\markets\preproduction\emms\active site\Intrface\Releases\MMS Data Model\PreProduction\v4.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/PhD/nemde/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6ABB5EF1-4072-4747-910F-16EF6D0AB645}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="10_ncr:100000_{6ABB5EF1-4072-4747-910F-16EF6D0AB645}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9B5393BC-EC0C-184C-8CF8-6B5B1717BCA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="3" r:id="rId1"/>
@@ -2316,7 +2316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="64"/>
@@ -3265,30 +3265,30 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="87.5" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="25">
       <c r="B2" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="9" customHeight="1">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14">
       <c r="B4" s="11" t="s">
         <v>759</v>
       </c>
@@ -3299,26 +3299,26 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="8.25" customHeight="1">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>761</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="B8" s="12" t="s">
         <v>537</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14">
       <c r="B10" s="5" t="s">
         <v>505</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14">
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14">
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14">
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14">
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14">
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
@@ -3439,17 +3439,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="15">
       <c r="B23" s="13" t="s">
         <v>531</v>
       </c>
@@ -3458,12 +3458,12 @@
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14">
       <c r="B25" s="5" t="s">
         <v>532</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="14">
       <c r="B26" s="8" t="s">
         <v>516</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="16.5" customHeight="1">
       <c r="B27" s="8" t="s">
         <v>517</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="14">
       <c r="B28" s="8" t="s">
         <v>518</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="14">
       <c r="B29" s="8" t="s">
         <v>519</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="14">
       <c r="B30" s="8" t="s">
         <v>520</v>
       </c>
@@ -3549,25 +3549,25 @@
   </sheetPr>
   <dimension ref="A1:J375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="128" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="31.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>725</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14">
       <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14">
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14">
       <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14">
       <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14">
       <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14">
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14">
       <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14">
       <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14">
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14">
       <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14">
       <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14">
       <c r="A28" s="16" t="s">
         <v>28</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14">
       <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14">
       <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14">
       <c r="A31" s="16" t="s">
         <v>53</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14">
       <c r="A32" s="16" t="s">
         <v>53</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14">
       <c r="A33" s="16" t="s">
         <v>53</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14">
       <c r="A34" s="16" t="s">
         <v>53</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14">
       <c r="A35" s="16" t="s">
         <v>53</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14">
       <c r="A36" s="16" t="s">
         <v>53</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14">
       <c r="A37" s="16" t="s">
         <v>61</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14">
       <c r="A38" s="16" t="s">
         <v>61</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14">
       <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14">
       <c r="A40" s="16" t="s">
         <v>61</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14">
       <c r="A41" s="16" t="s">
         <v>61</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14">
       <c r="A42" s="16" t="s">
         <v>61</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14">
       <c r="A43" s="16" t="s">
         <v>61</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14">
       <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14">
       <c r="A45" s="16" t="s">
         <v>61</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14">
       <c r="A46" s="16" t="s">
         <v>61</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14">
       <c r="A47" s="16" t="s">
         <v>61</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14">
       <c r="A48" s="16" t="s">
         <v>61</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14">
       <c r="A49" s="16" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14">
       <c r="A50" s="16" t="s">
         <v>61</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14">
       <c r="A51" s="16" t="s">
         <v>61</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14">
       <c r="A52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14">
       <c r="A53" s="16" t="s">
         <v>61</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14">
       <c r="A54" s="16" t="s">
         <v>61</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14">
       <c r="A55" s="16" t="s">
         <v>61</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14">
       <c r="A56" s="16" t="s">
         <v>61</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14">
       <c r="A57" s="16" t="s">
         <v>61</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14">
       <c r="A58" s="16" t="s">
         <v>61</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14">
       <c r="A59" s="16" t="s">
         <v>61</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14">
       <c r="A60" s="16" t="s">
         <v>61</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14">
       <c r="A61" s="16" t="s">
         <v>61</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14">
       <c r="A63" s="16" t="s">
         <v>61</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14">
       <c r="A64" s="16" t="s">
         <v>61</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14">
       <c r="A65" s="16" t="s">
         <v>61</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14">
       <c r="A66" s="16" t="s">
         <v>61</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14">
       <c r="A67" s="16" t="s">
         <v>61</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14">
       <c r="A68" s="16" t="s">
         <v>61</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14">
       <c r="A69" s="16" t="s">
         <v>61</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14">
       <c r="A70" s="16" t="s">
         <v>61</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14">
       <c r="A71" s="16" t="s">
         <v>61</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14">
       <c r="A72" s="16" t="s">
         <v>61</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14">
       <c r="A73" s="16" t="s">
         <v>61</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14">
       <c r="A74" s="16" t="s">
         <v>61</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14">
       <c r="A75" s="16" t="s">
         <v>61</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14">
       <c r="A76" s="16" t="s">
         <v>61</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14">
       <c r="A77" s="16" t="s">
         <v>61</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14">
       <c r="A78" s="16" t="s">
         <v>61</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14">
       <c r="A79" s="16" t="s">
         <v>61</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14">
       <c r="A80" s="16" t="s">
         <v>61</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14">
       <c r="A81" s="16" t="s">
         <v>61</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14">
       <c r="A82" s="16" t="s">
         <v>61</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14">
       <c r="A83" s="16" t="s">
         <v>61</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14">
       <c r="A84" s="16" t="s">
         <v>61</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14">
       <c r="A85" s="16" t="s">
         <v>61</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14">
       <c r="A86" s="16" t="s">
         <v>137</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14">
       <c r="A87" s="16" t="s">
         <v>137</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14">
       <c r="A88" s="16" t="s">
         <v>137</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14">
       <c r="A89" s="16" t="s">
         <v>137</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14">
       <c r="A90" s="16" t="s">
         <v>137</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14">
       <c r="A91" s="16" t="s">
         <v>137</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="14">
       <c r="A92" s="16" t="s">
         <v>137</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14">
       <c r="A93" s="16" t="s">
         <v>143</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="14">
       <c r="A94" s="16" t="s">
         <v>143</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="14">
       <c r="A95" s="16" t="s">
         <v>143</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="14">
       <c r="A96" s="16" t="s">
         <v>143</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="14">
       <c r="A97" s="16" t="s">
         <v>143</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="14">
       <c r="A98" s="16" t="s">
         <v>143</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="14">
       <c r="A99" s="16" t="s">
         <v>143</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="14">
       <c r="A100" s="16" t="s">
         <v>143</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="14">
       <c r="A101" s="16" t="s">
         <v>143</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="14">
       <c r="A102" s="16" t="s">
         <v>143</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="14">
       <c r="A103" s="16" t="s">
         <v>143</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="14">
       <c r="A104" s="16" t="s">
         <v>143</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="14">
       <c r="A105" s="16" t="s">
         <v>143</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="14">
       <c r="A106" s="16" t="s">
         <v>143</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="14">
       <c r="A107" s="16" t="s">
         <v>143</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="14">
       <c r="A108" s="16" t="s">
         <v>143</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="14">
       <c r="A109" s="16" t="s">
         <v>143</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="14">
       <c r="A110" s="16" t="s">
         <v>143</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="14">
       <c r="A111" s="16" t="s">
         <v>143</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="14">
       <c r="A112" s="16" t="s">
         <v>143</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="14">
       <c r="A113" s="16" t="s">
         <v>143</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="14">
       <c r="A114" s="16" t="s">
         <v>143</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="14">
       <c r="A115" s="16" t="s">
         <v>150</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="14">
       <c r="A116" s="16" t="s">
         <v>150</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="14">
       <c r="A117" s="16" t="s">
         <v>150</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="14">
       <c r="A118" s="16" t="s">
         <v>150</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="14">
       <c r="A119" s="16" t="s">
         <v>150</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="14">
       <c r="A120" s="16" t="s">
         <v>150</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="14">
       <c r="A121" s="16" t="s">
         <v>150</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="14">
       <c r="A122" s="16" t="s">
         <v>150</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="14">
       <c r="A123" s="16" t="s">
         <v>150</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="14">
       <c r="A124" s="16" t="s">
         <v>150</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="14">
       <c r="A125" s="16" t="s">
         <v>150</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="14">
       <c r="A126" s="16" t="s">
         <v>150</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="14">
       <c r="A127" s="16" t="s">
         <v>150</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="14">
       <c r="A128" s="16" t="s">
         <v>150</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="14">
       <c r="A129" s="16" t="s">
         <v>150</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="14">
       <c r="A130" s="16" t="s">
         <v>150</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14">
       <c r="A131" s="16" t="s">
         <v>150</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="14">
       <c r="A132" s="16" t="s">
         <v>150</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="14">
       <c r="A133" s="16" t="s">
         <v>150</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="14">
       <c r="A134" s="16" t="s">
         <v>150</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="14">
       <c r="A135" s="16" t="s">
         <v>150</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="14">
       <c r="A136" s="16" t="s">
         <v>150</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="14">
       <c r="A137" s="16" t="s">
         <v>150</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="14">
       <c r="A138" s="16" t="s">
         <v>150</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14">
       <c r="A139" s="16" t="s">
         <v>150</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14">
       <c r="A140" s="16" t="s">
         <v>150</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14">
       <c r="A141" s="16" t="s">
         <v>150</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14">
       <c r="A142" s="16" t="s">
         <v>150</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="14">
       <c r="A143" s="16" t="s">
         <v>150</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14">
       <c r="A144" s="16" t="s">
         <v>150</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14">
       <c r="A145" s="16" t="s">
         <v>195</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14">
       <c r="A146" s="16" t="s">
         <v>195</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="14">
       <c r="A147" s="16" t="s">
         <v>195</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14">
       <c r="A148" s="16" t="s">
         <v>195</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14">
       <c r="A149" s="16" t="s">
         <v>195</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="14">
       <c r="A150" s="16" t="s">
         <v>195</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="14">
       <c r="A151" s="16" t="s">
         <v>195</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14">
       <c r="A152" s="16" t="s">
         <v>195</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="14">
       <c r="A153" s="16" t="s">
         <v>195</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14">
       <c r="A154" s="16" t="s">
         <v>195</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14">
       <c r="A155" s="16" t="s">
         <v>195</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14">
       <c r="A156" s="16" t="s">
         <v>208</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14">
       <c r="A157" s="16" t="s">
         <v>208</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="14">
       <c r="A158" s="16" t="s">
         <v>208</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="14">
       <c r="A159" s="16" t="s">
         <v>208</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="14">
       <c r="A160" s="16" t="s">
         <v>215</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14">
       <c r="A161" s="16" t="s">
         <v>215</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="14">
       <c r="A162" s="16" t="s">
         <v>215</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="14">
       <c r="A163" s="16" t="s">
         <v>215</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="14">
       <c r="A164" s="16" t="s">
         <v>215</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14">
       <c r="A165" s="16" t="s">
         <v>215</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="14">
       <c r="A166" s="16" t="s">
         <v>215</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="14">
       <c r="A167" s="16" t="s">
         <v>215</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="14">
       <c r="A168" s="16" t="s">
         <v>215</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="14">
       <c r="A169" s="16" t="s">
         <v>215</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14">
       <c r="A170" s="16" t="s">
         <v>215</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="14">
       <c r="A171" s="16" t="s">
         <v>215</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="14">
       <c r="A172" s="16" t="s">
         <v>215</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14">
       <c r="A173" s="16" t="s">
         <v>215</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="14">
       <c r="A174" s="16" t="s">
         <v>215</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="14">
       <c r="A175" s="16" t="s">
         <v>215</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="14">
       <c r="A176" s="16" t="s">
         <v>215</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14">
       <c r="A177" s="16" t="s">
         <v>215</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14">
       <c r="A178" s="16" t="s">
         <v>215</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="14">
       <c r="A179" s="16" t="s">
         <v>215</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="14">
       <c r="A180" s="16" t="s">
         <v>242</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="14">
       <c r="A181" s="16" t="s">
         <v>242</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="14">
       <c r="A182" s="16" t="s">
         <v>242</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14">
       <c r="A183" s="16" t="s">
         <v>242</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="14">
       <c r="A184" s="16" t="s">
         <v>242</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14">
       <c r="A185" s="16" t="s">
         <v>242</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="14">
       <c r="A186" s="16" t="s">
         <v>242</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="14">
       <c r="A187" s="16" t="s">
         <v>242</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="14">
       <c r="A188" s="16" t="s">
         <v>242</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="14">
       <c r="A189" s="16" t="s">
         <v>242</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="14">
       <c r="A190" s="16" t="s">
         <v>242</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="14">
       <c r="A191" s="16" t="s">
         <v>242</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="14">
       <c r="A192" s="16" t="s">
         <v>242</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="14">
       <c r="A193" s="16" t="s">
         <v>242</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="14">
       <c r="A194" s="16" t="s">
         <v>242</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="14">
       <c r="A195" s="16" t="s">
         <v>242</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="14">
       <c r="A196" s="16" t="s">
         <v>242</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="14">
       <c r="A197" s="16" t="s">
         <v>242</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="14">
       <c r="A198" s="16" t="s">
         <v>242</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="14">
       <c r="A199" s="16" t="s">
         <v>242</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="14">
       <c r="A200" s="16" t="s">
         <v>242</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="14">
       <c r="A201" s="16" t="s">
         <v>271</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="14">
       <c r="A202" s="16" t="s">
         <v>271</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="14">
       <c r="A203" s="16" t="s">
         <v>271</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="14">
       <c r="A204" s="16" t="s">
         <v>271</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="14">
       <c r="A205" s="16" t="s">
         <v>271</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="14">
       <c r="A206" s="16" t="s">
         <v>271</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="14">
       <c r="A207" s="16" t="s">
         <v>271</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="14">
       <c r="A208" s="16" t="s">
         <v>271</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="14">
       <c r="A209" s="16" t="s">
         <v>271</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="14">
       <c r="A210" s="16" t="s">
         <v>271</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="14">
       <c r="A211" s="16" t="s">
         <v>271</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="14">
       <c r="A212" s="16" t="s">
         <v>271</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="14">
       <c r="A213" s="16" t="s">
         <v>284</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="14">
       <c r="A214" s="16" t="s">
         <v>284</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="14">
       <c r="A215" s="16" t="s">
         <v>284</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="14">
       <c r="A216" s="16" t="s">
         <v>289</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="14">
       <c r="A217" s="16" t="s">
         <v>289</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="14">
       <c r="A218" s="16" t="s">
         <v>289</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="14">
       <c r="A219" s="16" t="s">
         <v>289</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="14">
       <c r="A220" s="16" t="s">
         <v>296</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="14">
       <c r="A221" s="16" t="s">
         <v>296</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="14">
       <c r="A222" s="16" t="s">
         <v>296</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="14">
       <c r="A223" s="16" t="s">
         <v>296</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="14">
       <c r="A224" s="16" t="s">
         <v>296</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="14">
       <c r="A225" s="16" t="s">
         <v>296</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="14">
       <c r="A226" s="16" t="s">
         <v>296</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="14">
       <c r="A227" s="16" t="s">
         <v>296</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="14">
       <c r="A228" s="16" t="s">
         <v>305</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="14">
       <c r="A229" s="16" t="s">
         <v>305</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="14">
       <c r="A230" s="16" t="s">
         <v>305</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="14">
       <c r="A231" s="16" t="s">
         <v>305</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="14">
       <c r="A232" s="16" t="s">
         <v>305</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="14">
       <c r="A233" s="16" t="s">
         <v>305</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="14">
       <c r="A234" s="16" t="s">
         <v>319</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="14">
       <c r="A235" s="16" t="s">
         <v>319</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="14">
       <c r="A236" s="16" t="s">
         <v>319</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="14">
       <c r="A237" s="16" t="s">
         <v>319</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="14">
       <c r="A238" s="16" t="s">
         <v>319</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="14">
       <c r="A239" s="16" t="s">
         <v>319</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="14">
       <c r="A240" s="16" t="s">
         <v>319</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="14">
       <c r="A241" s="16" t="s">
         <v>319</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="14">
       <c r="A242" s="16" t="s">
         <v>319</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="14">
       <c r="A243" s="16" t="s">
         <v>319</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="14">
       <c r="A244" s="16" t="s">
         <v>589</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="14">
       <c r="A245" s="16" t="s">
         <v>589</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="14">
       <c r="A246" s="16" t="s">
         <v>589</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="14">
       <c r="A247" s="16" t="s">
         <v>589</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="14">
       <c r="A248" s="16" t="s">
         <v>589</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="14">
       <c r="A249" s="16" t="s">
         <v>589</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="14">
       <c r="A250" s="16" t="s">
         <v>589</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="14">
       <c r="A251" s="16" t="s">
         <v>589</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="14">
       <c r="A252" s="16" t="s">
         <v>323</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="14">
       <c r="A253" s="16" t="s">
         <v>323</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="14">
       <c r="A254" s="16" t="s">
         <v>323</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="14">
       <c r="A255" s="16" t="s">
         <v>323</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="14">
       <c r="A256" s="16" t="s">
         <v>323</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="14">
       <c r="A257" s="16" t="s">
         <v>323</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="14">
       <c r="A258" s="16" t="s">
         <v>323</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="14">
       <c r="A259" s="16" t="s">
         <v>331</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="14">
       <c r="A260" s="16" t="s">
         <v>331</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="14">
       <c r="A261" s="16" t="s">
         <v>331</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="14">
       <c r="A262" s="16" t="s">
         <v>331</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="14">
       <c r="A263" s="16" t="s">
         <v>331</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="14">
       <c r="A264" s="16" t="s">
         <v>331</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="14">
       <c r="A265" s="16" t="s">
         <v>331</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="14">
       <c r="A266" s="16" t="s">
         <v>331</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" ht="14">
       <c r="A267" s="16" t="s">
         <v>331</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="14">
       <c r="A268" s="16" t="s">
         <v>331</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" ht="14">
       <c r="A269" s="16" t="s">
         <v>331</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="14">
       <c r="A270" s="16" t="s">
         <v>331</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" ht="14">
       <c r="A271" s="16" t="s">
         <v>331</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" ht="14">
       <c r="A272" s="16" t="s">
         <v>331</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="14">
       <c r="A273" s="16" t="s">
         <v>331</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="14">
       <c r="A274" s="16" t="s">
         <v>331</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="14">
       <c r="A275" s="16" t="s">
         <v>331</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="14">
       <c r="A276" s="16" t="s">
         <v>331</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="14">
       <c r="A277" s="16" t="s">
         <v>331</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="14">
       <c r="A278" s="16" t="s">
         <v>331</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" ht="14">
       <c r="A279" s="16" t="s">
         <v>331</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="14">
       <c r="A280" s="16" t="s">
         <v>331</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="14">
       <c r="A281" s="16" t="s">
         <v>354</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="14">
       <c r="A282" s="16" t="s">
         <v>354</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="14">
       <c r="A283" s="16" t="s">
         <v>358</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" ht="14">
       <c r="A284" s="16" t="s">
         <v>358</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="14">
       <c r="A285" s="16" t="s">
         <v>358</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" ht="14">
       <c r="A286" s="16" t="s">
         <v>358</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="14">
       <c r="A287" s="16" t="s">
         <v>358</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" ht="14">
       <c r="A288" s="16" t="s">
         <v>358</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" ht="14">
       <c r="A289" s="16" t="s">
         <v>358</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="14">
       <c r="A290" s="16" t="s">
         <v>358</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" ht="14">
       <c r="A291" s="16" t="s">
         <v>358</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="14">
       <c r="A292" s="16" t="s">
         <v>358</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="14">
       <c r="A293" s="16" t="s">
         <v>358</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" ht="14">
       <c r="A294" s="16" t="s">
         <v>358</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" ht="14">
       <c r="A295" s="16" t="s">
         <v>358</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" ht="14">
       <c r="A296" s="16" t="s">
         <v>358</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" ht="14">
       <c r="A297" s="16" t="s">
         <v>358</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="14">
       <c r="A298" s="16" t="s">
         <v>358</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" ht="14">
       <c r="A299" s="16" t="s">
         <v>358</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" ht="14">
       <c r="A300" s="16" t="s">
         <v>358</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" ht="14">
       <c r="A301" s="16" t="s">
         <v>358</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" ht="14">
       <c r="A302" s="16" t="s">
         <v>392</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" ht="14">
       <c r="A303" s="16" t="s">
         <v>392</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" ht="14">
       <c r="A304" s="16" t="s">
         <v>398</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" ht="14">
       <c r="A305" s="16" t="s">
         <v>398</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" ht="14">
       <c r="A306" s="16" t="s">
         <v>398</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" ht="14">
       <c r="A307" s="16" t="s">
         <v>398</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" ht="14">
       <c r="A308" s="16" t="s">
         <v>402</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" ht="14">
       <c r="A309" s="16" t="s">
         <v>402</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" ht="14">
       <c r="A310" s="16" t="s">
         <v>402</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" ht="14">
       <c r="A311" s="16" t="s">
         <v>402</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" ht="14">
       <c r="A312" s="16" t="s">
         <v>402</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" ht="14">
       <c r="A313" s="16" t="s">
         <v>402</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" ht="14">
       <c r="A314" s="16" t="s">
         <v>402</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" ht="14">
       <c r="A315" s="16" t="s">
         <v>402</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" ht="14">
       <c r="A316" s="16" t="s">
         <v>402</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" ht="14">
       <c r="A317" s="16" t="s">
         <v>402</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" ht="14">
       <c r="A318" s="16" t="s">
         <v>402</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" ht="14">
       <c r="A319" s="16" t="s">
         <v>402</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" ht="14">
       <c r="A320" s="16" t="s">
         <v>402</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" ht="14">
       <c r="A321" s="16" t="s">
         <v>420</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" ht="14">
       <c r="A322" s="16" t="s">
         <v>420</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="14">
       <c r="A323" s="16" t="s">
         <v>420</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" ht="14">
       <c r="A324" s="16" t="s">
         <v>420</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" ht="14">
       <c r="A325" s="16" t="s">
         <v>420</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" ht="14">
       <c r="A326" s="16" t="s">
         <v>420</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" ht="14">
       <c r="A327" s="16" t="s">
         <v>420</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" ht="14">
       <c r="A328" s="16" t="s">
         <v>420</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" ht="14">
       <c r="A329" s="16" t="s">
         <v>420</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" ht="14">
       <c r="A330" s="16" t="s">
         <v>420</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" ht="14">
       <c r="A331" s="16" t="s">
         <v>420</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" ht="14">
       <c r="A332" s="16" t="s">
         <v>420</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" ht="14">
       <c r="A333" s="16" t="s">
         <v>420</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="14">
       <c r="A334" s="16" t="s">
         <v>420</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="14">
       <c r="A335" s="16" t="s">
         <v>420</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="14">
       <c r="A336" s="16" t="s">
         <v>420</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" ht="14">
       <c r="A337" s="16" t="s">
         <v>420</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="14">
       <c r="A338" s="16" t="s">
         <v>420</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="14">
       <c r="A339" s="16" t="s">
         <v>420</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" ht="14">
       <c r="A340" s="16" t="s">
         <v>420</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" ht="14">
       <c r="A341" s="16" t="s">
         <v>420</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" ht="14">
       <c r="A342" s="16" t="s">
         <v>420</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="14">
       <c r="A343" s="16" t="s">
         <v>420</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" ht="14">
       <c r="A344" s="16" t="s">
         <v>420</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" ht="14">
       <c r="A345" s="16" t="s">
         <v>420</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" ht="14">
       <c r="A346" s="16" t="s">
         <v>420</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" ht="14">
       <c r="A347" s="16" t="s">
         <v>420</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" ht="14">
       <c r="A348" s="16" t="s">
         <v>420</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" ht="14">
       <c r="A349" s="16" t="s">
         <v>420</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" ht="14">
       <c r="A350" s="16" t="s">
         <v>420</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" ht="14">
       <c r="A351" s="16" t="s">
         <v>420</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" ht="14">
       <c r="A352" s="16" t="s">
         <v>420</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" ht="14">
       <c r="A353" s="16" t="s">
         <v>420</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" ht="14">
       <c r="A354" s="16" t="s">
         <v>420</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" ht="14">
       <c r="A355" s="16" t="s">
         <v>420</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="14">
       <c r="A356" s="16" t="s">
         <v>420</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="14">
       <c r="A357" s="16" t="s">
         <v>420</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="14">
       <c r="A358" s="16" t="s">
         <v>420</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" ht="14">
       <c r="A359" s="16" t="s">
         <v>420</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="14">
       <c r="A360" s="16" t="s">
         <v>420</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="14">
       <c r="A361" s="16" t="s">
         <v>420</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="14">
       <c r="A362" s="16" t="s">
         <v>420</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="14">
       <c r="A363" s="16" t="s">
         <v>420</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="14">
       <c r="A364" s="16" t="s">
         <v>490</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="14">
       <c r="A365" s="16" t="s">
         <v>490</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="14">
       <c r="A366" s="16" t="s">
         <v>490</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="14">
       <c r="A367" s="16" t="s">
         <v>490</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="14">
       <c r="A368" s="16" t="s">
         <v>497</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" ht="14">
       <c r="A369" s="16" t="s">
         <v>497</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" ht="14">
       <c r="A370" s="16" t="s">
         <v>497</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" ht="14">
       <c r="A371" s="16" t="s">
         <v>497</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" ht="14">
       <c r="A372" s="16" t="s">
         <v>497</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" ht="14">
       <c r="A373" s="16" t="s">
         <v>497</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" ht="14">
       <c r="A374" s="16" t="s">
         <v>662</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" ht="14">
       <c r="A375" s="16" t="s">
         <v>662</v>
       </c>
@@ -15578,6 +15578,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="409ac0fb-07cb-4169-8a26-def2760b5502" ContentTypeId="0x0101009BE89D58CAF0934CA32A20BCFFD353DC" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="AEMODocument" ma:contentTypeID="0x0101009BE89D58CAF0934CA32A20BCFFD353DC003C284E8C563B8240B0F847E3952288D8" ma:contentTypeVersion="54" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="55f068948ec451d9d11faaca95091476">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a14523ce-dede-483e-883a-2d83261080bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8f7241b9fc8515eea630c73afe24dbe" ns2:_="">
     <xsd:import namespace="a14523ce-dede-483e-883a-2d83261080bd"/>
@@ -15794,81 +15859,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="409ac0fb-07cb-4169-8a26-def2760b5502" ContentTypeId="0x0101009BE89D58CAF0934CA32A20BCFFD353DC" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AEMOCustodian xmlns="a14523ce-dede-483e-883a-2d83261080bd">
@@ -15903,26 +15894,77 @@
 </p:properties>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944812D3-748D-46D8-8969-5F74A33EE7E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14691D3-38DB-4E98-A0DB-F4BA8FA38E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C833D84E-6B56-4EE6-A769-0EFF24471036}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7538AB2-3037-48D7-BCC4-FE39C61E2927}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7538AB2-3037-48D7-BCC4-FE39C61E2927}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C833D84E-6B56-4EE6-A769-0EFF24471036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14691D3-38DB-4E98-A0DB-F4BA8FA38E3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{944812D3-748D-46D8-8969-5F74A33EE7E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a14523ce-dede-483e-883a-2d83261080bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF5F4AA-08A8-4E06-B2F5-B076335C1289}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C358EB8C-AC2F-4260-AE1C-DBEFF52DBD37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a14523ce-dede-483e-883a-2d83261080bd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C358EB8C-AC2F-4260-AE1C-DBEFF52DBD37}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF5F4AA-08A8-4E06-B2F5-B076335C1289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/raw/MMS Data Model Table to File to Report Relationships.xlsx
+++ b/raw/MMS Data Model Table to File to Report Relationships.xlsx
@@ -3549,9 +3549,9 @@
   </sheetPr>
   <dimension ref="A1:J375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
